--- a/biology/Botanique/Pongamia_pinnata/Pongamia_pinnata.xlsx
+++ b/biology/Botanique/Pongamia_pinnata/Pongamia_pinnata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pongamia pinnata est une espèce d'arbre de la famille des Fabaceae. Il est originaire de la zone tropicale de l'Asie, de l'Australie, et des ïles du Pacifique[1],[2],[3]. Il est la seule espèce du genre Pongamia[4]. Il est souvent connu sous le nom de Millettia pinnata. Ses noms communs sont aussi Indian beech, Pongame oiltree[2],[3], Karanj, Karanja ou arbre de pongolote.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pongamia pinnata est une espèce d'arbre de la famille des Fabaceae. Il est originaire de la zone tropicale de l'Asie, de l'Australie, et des ïles du Pacifique. Il est la seule espèce du genre Pongamia. Il est souvent connu sous le nom de Millettia pinnata. Ses noms communs sont aussi Indian beech, Pongame oiltree Karanj, Karanja ou arbre de pongolote.
 C'est un arbre à croissance rapide, fixateur d'azote, qui réside en zone tropicale ou subtropicale humide, mais qui est résistant à la sécheresse. Il pousse en plein soleil, sur des sols difficiles, même salés. Il produit de l'huile.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pongamia pinnata atteint 15 à 25 m de hauteur avec une canopée qui s’étend sur une largeur égale. Il peut être à feuilles caduques pendant de courtes périodes. Il a un tronc droit ou tordu, de 50 à 80 cm de diamètre, dont l’écorce gris-brun est lisse ou fissurée verticalement. Son bois est de couleur blanche[5]. Les branches sont glabres avec des cicatrices pâles provenant des stipules détachées. Les feuilles de l’arbre sont alternes et sont à pétioles courts, arrondies ou cunéiformes à la base, ovales ou oblongues sur toute leur longueur, obtus-acuminées à l’apex et non dentées sur les bords. Ils sont d’un bordeaux doux et brillant lorsqu’ils sont jeunes, et mûrissent en un vert brillant et profond au fur et à mesure que la saison avance, avec des veines proéminentes en dessous[6].
-La floraison commence généralement après 3–4 ans avec de petites grappes de fleurs blanches, violettes et roses qui fleurissent tout au long de l’année[7]. L’inflorescence en forme de grappe porte de deux à quatre fleurs fortement parfumées et atteint une longueur de 15 à 18 mm. Le calice des fleurs est en forme de cloche et tronqué, tandis que la corolle est de forme ovale arrondie avec des oreillettes basales et souvent avec une tache centrale de couleur verte[3],[8].
-Les gousses brunes apparaissent immédiatement après la floraison et mûrissent en 10 à 11 mois. Les gousses sont à parois épaisses, lisses, quelque peu aplaties et elliptiques, mais légèrement incurvées avec une pointe courte et incurvée. Les gousses contiennent une ou deux graines brunâtres ressemblant à des haricots, mais comme elles ne s’ouvrent pas naturellement, les gousses doivent se décomposer avant que les graines puissent germer. Les graines mesurent environ 1,5 à 2,5 cm de long, sont cassantes et huileuses. Elles sont peu appétissantes sous leur forme naturelle pour les herbivores[6],[8],[9],[5]
-Pongamia pinnata est un arbre autogame produisant des gousses, avec un nombre diploïde de 22 chromosomes[8]. Les nodules racinaires sont du type déterminé (comme ceux du soja et du haricot commun). Ils sont formés par la bactérie responsable Bradyrhizobium.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pongamia pinnata atteint 15 à 25 m de hauteur avec une canopée qui s’étend sur une largeur égale. Il peut être à feuilles caduques pendant de courtes périodes. Il a un tronc droit ou tordu, de 50 à 80 cm de diamètre, dont l’écorce gris-brun est lisse ou fissurée verticalement. Son bois est de couleur blanche. Les branches sont glabres avec des cicatrices pâles provenant des stipules détachées. Les feuilles de l’arbre sont alternes et sont à pétioles courts, arrondies ou cunéiformes à la base, ovales ou oblongues sur toute leur longueur, obtus-acuminées à l’apex et non dentées sur les bords. Ils sont d’un bordeaux doux et brillant lorsqu’ils sont jeunes, et mûrissent en un vert brillant et profond au fur et à mesure que la saison avance, avec des veines proéminentes en dessous.
+La floraison commence généralement après 3–4 ans avec de petites grappes de fleurs blanches, violettes et roses qui fleurissent tout au long de l’année. L’inflorescence en forme de grappe porte de deux à quatre fleurs fortement parfumées et atteint une longueur de 15 à 18 mm. Le calice des fleurs est en forme de cloche et tronqué, tandis que la corolle est de forme ovale arrondie avec des oreillettes basales et souvent avec une tache centrale de couleur verte,.
+Les gousses brunes apparaissent immédiatement après la floraison et mûrissent en 10 à 11 mois. Les gousses sont à parois épaisses, lisses, quelque peu aplaties et elliptiques, mais légèrement incurvées avec une pointe courte et incurvée. Les gousses contiennent une ou deux graines brunâtres ressemblant à des haricots, mais comme elles ne s’ouvrent pas naturellement, les gousses doivent se décomposer avant que les graines puissent germer. Les graines mesurent environ 1,5 à 2,5 cm de long, sont cassantes et huileuses. Elles sont peu appétissantes sous leur forme naturelle pour les herbivores
+Pongamia pinnata est un arbre autogame produisant des gousses, avec un nombre diploïde de 22 chromosomes. Les nodules racinaires sont du type déterminé (comme ceux du soja et du haricot commun). Ils sont formés par la bactérie responsable Bradyrhizobium.
 </t>
         </is>
       </c>
